--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.12257066666666</v>
+        <v>60.813934</v>
       </c>
       <c r="H2">
-        <v>114.367712</v>
+        <v>182.441802</v>
       </c>
       <c r="I2">
-        <v>0.6965023585118379</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="J2">
-        <v>0.6965023585118381</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N2">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O2">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P2">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q2">
-        <v>8347.784680730769</v>
+        <v>27311.7998066416</v>
       </c>
       <c r="R2">
-        <v>75130.06212657693</v>
+        <v>245806.1982597744</v>
       </c>
       <c r="S2">
-        <v>0.6589373096069373</v>
+        <v>0.6642269562304284</v>
       </c>
       <c r="T2">
-        <v>0.6589373096069375</v>
+        <v>0.6642269562304284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.12257066666666</v>
+        <v>60.813934</v>
       </c>
       <c r="H3">
-        <v>114.367712</v>
+        <v>182.441802</v>
       </c>
       <c r="I3">
-        <v>0.6965023585118379</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="J3">
-        <v>0.6965023585118381</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.698085</v>
       </c>
       <c r="O3">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P3">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q3">
-        <v>199.4837849146133</v>
+        <v>318.22076837213</v>
       </c>
       <c r="R3">
-        <v>1795.35406423152</v>
+        <v>2863.98691534917</v>
       </c>
       <c r="S3">
-        <v>0.0157463702729737</v>
+        <v>0.007739175516866798</v>
       </c>
       <c r="T3">
-        <v>0.01574637027297371</v>
+        <v>0.007739175516866799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.12257066666666</v>
+        <v>60.813934</v>
       </c>
       <c r="H4">
-        <v>114.367712</v>
+        <v>182.441802</v>
       </c>
       <c r="I4">
-        <v>0.6965023585118379</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="J4">
-        <v>0.6965023585118381</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N4">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O4">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P4">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q4">
-        <v>134.6382961049742</v>
+        <v>320.278225387218</v>
       </c>
       <c r="R4">
-        <v>1211.744664944768</v>
+        <v>2882.504028484962</v>
       </c>
       <c r="S4">
-        <v>0.0106277533499711</v>
+        <v>0.007789213171667363</v>
       </c>
       <c r="T4">
-        <v>0.01062775334997111</v>
+        <v>0.007789213171667363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.12257066666666</v>
+        <v>60.813934</v>
       </c>
       <c r="H5">
-        <v>114.367712</v>
+        <v>182.441802</v>
       </c>
       <c r="I5">
-        <v>0.6965023585118379</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="J5">
-        <v>0.6965023585118381</v>
+        <v>0.6840634102070431</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N5">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O5">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P5">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q5">
-        <v>141.7728716676231</v>
+        <v>177.1397797068327</v>
       </c>
       <c r="R5">
-        <v>1275.955845008608</v>
+        <v>1594.258017361494</v>
       </c>
       <c r="S5">
-        <v>0.01119092528195578</v>
+        <v>0.004308065288080561</v>
       </c>
       <c r="T5">
-        <v>0.01119092528195578</v>
+        <v>0.004308065288080561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.823821666666667</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H6">
-        <v>8.471465</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I6">
-        <v>0.05159144350593014</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="J6">
-        <v>0.05159144350593015</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N6">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O6">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P6">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q6">
-        <v>618.3385547692595</v>
+        <v>1268.190478347561</v>
       </c>
       <c r="R6">
-        <v>5565.046992923336</v>
+        <v>11413.71430512805</v>
       </c>
       <c r="S6">
-        <v>0.04880891868790148</v>
+        <v>0.03084257746896517</v>
       </c>
       <c r="T6">
-        <v>0.04880891868790149</v>
+        <v>0.03084257746896517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.823821666666667</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H7">
-        <v>8.471465</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I7">
-        <v>0.05159144350593014</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="J7">
-        <v>0.05159144350593015</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>15.698085</v>
       </c>
       <c r="O7">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P7">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q7">
         <v>14.77619751605833</v>
@@ -883,10 +883,10 @@
         <v>132.985777644525</v>
       </c>
       <c r="S7">
-        <v>0.001166367870020318</v>
+        <v>0.000359359279514209</v>
       </c>
       <c r="T7">
-        <v>0.001166367870020318</v>
+        <v>0.000359359279514209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.823821666666667</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H8">
-        <v>8.471465</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I8">
-        <v>0.05159144350593014</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="J8">
-        <v>0.05159144350593015</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N8">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O8">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P8">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q8">
-        <v>9.972951221695556</v>
+        <v>14.871733050685</v>
       </c>
       <c r="R8">
-        <v>89.75656099526</v>
+        <v>133.845597456165</v>
       </c>
       <c r="S8">
-        <v>0.0007872207894909446</v>
+        <v>0.0003616827176554584</v>
       </c>
       <c r="T8">
-        <v>0.0007872207894909447</v>
+        <v>0.0003616827176554584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.823821666666667</v>
+        <v>2.823821666666666</v>
       </c>
       <c r="H9">
-        <v>8.471465</v>
+        <v>8.471464999999998</v>
       </c>
       <c r="I9">
-        <v>0.05159144350593014</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="J9">
-        <v>0.05159144350593015</v>
+        <v>0.0317636592810545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N9">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O9">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P9">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q9">
-        <v>10.50142474024278</v>
+        <v>8.225271990539444</v>
       </c>
       <c r="R9">
-        <v>94.512822662185</v>
+        <v>74.02744791485499</v>
       </c>
       <c r="S9">
-        <v>0.0008289361585173931</v>
+        <v>0.0002000398149196607</v>
       </c>
       <c r="T9">
-        <v>0.0008289361585173932</v>
+        <v>0.0002000398149196607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3379906666666666</v>
+        <v>0.640208</v>
       </c>
       <c r="H10">
-        <v>1.013972</v>
+        <v>1.920624</v>
       </c>
       <c r="I10">
-        <v>0.006175116010583174</v>
+        <v>0.007201357302782462</v>
       </c>
       <c r="J10">
-        <v>0.006175116010583175</v>
+        <v>0.007201357302782463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N10">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O10">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P10">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q10">
-        <v>74.01057326642977</v>
+        <v>287.520171456272</v>
       </c>
       <c r="R10">
-        <v>666.095159397868</v>
+        <v>2587.681543106448</v>
       </c>
       <c r="S10">
-        <v>0.005842068272702399</v>
+        <v>0.006992532520497195</v>
       </c>
       <c r="T10">
-        <v>0.0058420682727024</v>
+        <v>0.006992532520497196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3379906666666666</v>
+        <v>0.640208</v>
       </c>
       <c r="H11">
-        <v>1.013972</v>
+        <v>1.920624</v>
       </c>
       <c r="I11">
-        <v>0.006175116010583174</v>
+        <v>0.007201357302782462</v>
       </c>
       <c r="J11">
-        <v>0.006175116010583175</v>
+        <v>0.007201357302782463</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>15.698085</v>
       </c>
       <c r="O11">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P11">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q11">
-        <v>1.768602071513333</v>
+        <v>3.35001320056</v>
       </c>
       <c r="R11">
-        <v>15.91741864362</v>
+        <v>30.15011880504</v>
       </c>
       <c r="S11">
-        <v>0.000139605648125825</v>
+        <v>8.147280982187831E-05</v>
       </c>
       <c r="T11">
-        <v>0.000139605648125825</v>
+        <v>8.147280982187832E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3379906666666666</v>
+        <v>0.640208</v>
       </c>
       <c r="H12">
-        <v>1.013972</v>
+        <v>1.920624</v>
       </c>
       <c r="I12">
-        <v>0.006175116010583174</v>
+        <v>0.007201357302782462</v>
       </c>
       <c r="J12">
-        <v>0.006175116010583175</v>
+        <v>0.007201357302782463</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N12">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O12">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P12">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q12">
-        <v>1.193688847934222</v>
+        <v>3.371672717616</v>
       </c>
       <c r="R12">
-        <v>10.743199631408</v>
+        <v>30.345054458544</v>
       </c>
       <c r="S12">
-        <v>9.422453357969511E-05</v>
+        <v>8.199957243691585E-05</v>
       </c>
       <c r="T12">
-        <v>9.422453357969514E-05</v>
+        <v>8.199957243691585E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3379906666666666</v>
+        <v>0.640208</v>
       </c>
       <c r="H13">
-        <v>1.013972</v>
+        <v>1.920624</v>
       </c>
       <c r="I13">
-        <v>0.006175116010583174</v>
+        <v>0.007201357302782462</v>
       </c>
       <c r="J13">
-        <v>0.006175116010583175</v>
+        <v>0.007201357302782463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N13">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O13">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P13">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q13">
-        <v>1.256943237883111</v>
+        <v>1.864807892325334</v>
       </c>
       <c r="R13">
-        <v>11.312489140948</v>
+        <v>16.783271030928</v>
       </c>
       <c r="S13">
-        <v>9.921755617525399E-05</v>
+        <v>4.535240002647222E-05</v>
       </c>
       <c r="T13">
-        <v>9.9217556175254E-05</v>
+        <v>4.535240002647222E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.44991933333333</v>
+        <v>24.623055</v>
       </c>
       <c r="H14">
-        <v>40.34975799999999</v>
+        <v>73.86916500000001</v>
       </c>
       <c r="I14">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="J14">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>218.9722396666667</v>
+        <v>449.104309</v>
       </c>
       <c r="N14">
-        <v>656.9167190000001</v>
+        <v>1347.312927</v>
       </c>
       <c r="O14">
-        <v>0.9460661569256378</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="P14">
-        <v>0.9460661569256379</v>
+        <v>0.9710020245482639</v>
       </c>
       <c r="Q14">
-        <v>2945.158959756001</v>
+        <v>11058.320101244</v>
       </c>
       <c r="R14">
-        <v>26506.430637804</v>
+        <v>99524.88091119597</v>
       </c>
       <c r="S14">
-        <v>0.2324778603580965</v>
+        <v>0.2689399583283731</v>
       </c>
       <c r="T14">
-        <v>0.2324778603580965</v>
+        <v>0.2689399583283731</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.44991933333333</v>
+        <v>24.623055</v>
       </c>
       <c r="H15">
-        <v>40.34975799999999</v>
+        <v>73.86916500000001</v>
       </c>
       <c r="I15">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="J15">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>15.698085</v>
       </c>
       <c r="O15">
-        <v>0.02260777739018391</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="P15">
-        <v>0.02260777739018392</v>
+        <v>0.01131353526791385</v>
       </c>
       <c r="Q15">
-        <v>70.37932564593666</v>
+        <v>128.844936783225</v>
       </c>
       <c r="R15">
-        <v>633.4139308134298</v>
+        <v>1159.604431049025</v>
       </c>
       <c r="S15">
-        <v>0.005555433599064068</v>
+        <v>0.00313352766171096</v>
       </c>
       <c r="T15">
-        <v>0.005555433599064069</v>
+        <v>0.00313352766171096</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.44991933333333</v>
+        <v>24.623055</v>
       </c>
       <c r="H16">
-        <v>40.34975799999999</v>
+        <v>73.86916500000001</v>
       </c>
       <c r="I16">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="J16">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.531721333333333</v>
+        <v>5.266527</v>
       </c>
       <c r="N16">
-        <v>10.595164</v>
+        <v>15.799581</v>
       </c>
       <c r="O16">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="P16">
-        <v>0.01525874710988573</v>
+        <v>0.0113866829528418</v>
       </c>
       <c r="Q16">
-        <v>47.50136704114578</v>
+        <v>129.677983979985</v>
       </c>
       <c r="R16">
-        <v>427.5123033703119</v>
+        <v>1167.101855819865</v>
       </c>
       <c r="S16">
-        <v>0.003749548436843988</v>
+        <v>0.003153787491082059</v>
       </c>
       <c r="T16">
-        <v>0.003749548436843988</v>
+        <v>0.003153787491082059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.44991933333333</v>
+        <v>24.623055</v>
       </c>
       <c r="H17">
-        <v>40.34975799999999</v>
+        <v>73.86916500000001</v>
       </c>
       <c r="I17">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="J17">
-        <v>0.2457310819716486</v>
+        <v>0.2769715732091199</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.718869666666667</v>
+        <v>2.912815666666667</v>
       </c>
       <c r="N17">
-        <v>11.156609</v>
+        <v>8.738447000000001</v>
       </c>
       <c r="O17">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="P17">
-        <v>0.01606731857429249</v>
+        <v>0.006297757230980464</v>
       </c>
       <c r="Q17">
-        <v>50.01849702784688</v>
+        <v>71.72242036519502</v>
       </c>
       <c r="R17">
-        <v>450.1664732506219</v>
+        <v>645.5017832867551</v>
       </c>
       <c r="S17">
-        <v>0.003948239577644061</v>
+        <v>0.00174429972795377</v>
       </c>
       <c r="T17">
-        <v>0.003948239577644061</v>
+        <v>0.00174429972795377</v>
       </c>
     </row>
   </sheetData>
